--- a/comparison/error_comp.xlsx
+++ b/comparison/error_comp.xlsx
@@ -384,7 +384,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,22 +557,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.25459477000000003</v>
+        <v>0.25101760000000001</v>
       </c>
       <c r="C8">
-        <v>0.24083247999999999</v>
+        <v>0.2427588</v>
       </c>
       <c r="D8">
-        <v>0.39776277999999998</v>
+        <v>0.3670832</v>
       </c>
       <c r="E8">
-        <v>1.340036E-2</v>
+        <v>1.2070569999999999E-2</v>
       </c>
       <c r="F8">
-        <v>1.373067E-2</v>
+        <v>1.213406E-2</v>
       </c>
       <c r="G8">
-        <v>2.3729099999999999E-2</v>
+        <v>2.2752830000000002E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -580,22 +580,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.33617570000000002</v>
+        <v>0.32304002999999998</v>
       </c>
       <c r="C9">
-        <v>0.3200556</v>
+        <v>0.31788176000000001</v>
       </c>
       <c r="D9">
-        <v>0.37687085999999997</v>
+        <v>0.40052579999999999</v>
       </c>
       <c r="E9">
-        <v>1.53601E-2</v>
+        <v>1.3095590000000001E-2</v>
       </c>
       <c r="F9">
-        <v>1.9668250000000002E-2</v>
+        <v>1.925383E-2</v>
       </c>
       <c r="G9">
-        <v>1.6112230000000002E-2</v>
+        <v>1.6141969999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -603,22 +603,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.33925738999999999</v>
+        <v>0.33973172000000001</v>
       </c>
       <c r="C10">
-        <v>0.34250209999999998</v>
+        <v>0.33723871999999999</v>
       </c>
       <c r="D10">
-        <v>0.55034453999999999</v>
+        <v>0.5560678</v>
       </c>
       <c r="E10">
-        <v>1.1763600000000001E-2</v>
+        <v>1.3659589999999999E-2</v>
       </c>
       <c r="F10">
-        <v>2.328875E-2</v>
+        <v>2.12146E-2</v>
       </c>
       <c r="G10">
-        <v>1.0898669999999999E-2</v>
+        <v>1.1696369999999999E-2</v>
       </c>
     </row>
   </sheetData>
